--- a/pred_ohlcv/54_21/2019-10-31 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 LBA ohlcv.xlsx
@@ -1328,7 +1328,7 @@
         <v>-494836.2790999999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-494887.3509</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-491139.5673999999</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-660275.2576999998</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-660275.2576999998</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-627870.2658999999</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-627870.2658999999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-618838.8876999998</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-658233.3984999998</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-702427.9647999997</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-702416.9647999997</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-708424.0561999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-738952.5001999998</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-671925.3609999998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-689127.4687999998</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-685756.2423999998</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-645756.2423999998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-883146.5121999998</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-880499.6371999998</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-891824.6371999998</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-791724.6371999998</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-792240.6371999998</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-775470.6371999998</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-798067.2915999998</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-315650.5081999997</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-315650.5081999997</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-323818.5580999998</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-281709.5580999998</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-283946.6230999998</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-248337.1995999998</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-249376.5419999998</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-193727.2137999998</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-205326.2012999998</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-200074.4120999998</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5487.757799999759</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-43256.75779999976</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-208238.8796999998</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-205738.8796999998</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-210446.8796999998</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-218995.8511999997</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-103032.8511999997</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2131850.826416224</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2371284.650716224</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>2837901.078261689</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3331341.068894432</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3075311.126994432</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3019161.799694432</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>3080041.829694432</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>3210137.645862657</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>3236765.288662657</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>3092952.633762656</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>3258531.373062656</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>3258531.373062656</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3019749.079262657</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3019749.079262657</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3008237.285062657</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2878959.577062657</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2879438.155494029</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2804333.308294029</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2788550.035031284</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2469920.201605711</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 LBA ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>-521107.3184999999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-519252.0494999999</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-520735.1720999999</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-494735.1720999999</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-494725.1720999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-494872.6426999999</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-494836.2790999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-494854.4608999999</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-494854.4608999999</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-494897.3509</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-494887.3509</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-491139.5673999999</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-658471.1340999999</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-659244.3298999999</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-660275.2576999998</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-660275.2576999998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-627870.2658999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-627870.2658999999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-618838.8876999998</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-620224.2365999998</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-658251.5802999998</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-658233.3984999998</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-658215.2166999998</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-687387.9647999997</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-702427.9647999997</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-702416.9647999997</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-708424.0561999998</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-738952.5001999998</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-671925.3609999998</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-689127.4687999998</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-685756.2423999998</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-645756.2423999998</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-883146.5121999998</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-880499.6371999998</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-891824.6371999998</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-791724.6371999998</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-792240.6371999998</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-775470.6371999998</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-262230.3231999998</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-262248.8393999998</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-255075.5894999998</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-344038.6801999998</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-344038.6801999998</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-315650.5081999997</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-315650.5081999997</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-410687.6531999998</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-323818.5580999998</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-281709.5580999998</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-283946.6230999998</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-248337.1995999998</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-249376.5419999998</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-193727.2137999998</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-163782.2137999998</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-208071.2336999998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-98068.5800999998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-114908.0031999998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-205326.2012999998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-205326.2012999998</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-200074.4120999998</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-220895.2610999998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-5487.757799999759</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-43256.75779999976</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-48790.89499999976</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-208238.8796999998</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-205738.8796999998</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-250446.8796999998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-210446.8796999998</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-218995.8511999997</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-103032.8511999997</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-103032.8511999997</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-105532.8511999997</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-109036.2796827954</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-101704.0108827954</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>280527.6167172046</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>2131850.826416224</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>2371284.650716224</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>2837901.078261689</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>3331341.068894432</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>3406354.366594432</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2999775.670694432</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3075311.126994432</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3019161.799694432</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>3368339.756562657</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>3210137.645862657</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>3236765.288662657</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>3224421.298662656</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>3102204.008062657</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>3191540.819262656</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>3210776.604662656</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>3221635.138262657</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>3040296.211662657</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>3019749.079262657</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>3019749.079262657</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>3008237.285062657</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2878959.577062657</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2879438.155494029</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2804333.308294029</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2788550.035031284</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>2469920.201605711</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
